--- a/Tasks.xlsx
+++ b/Tasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CYBERSOFT\01_CAPSTONE_JS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3443233-FC9F-4F46-92DF-6E0EB5FC7DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C179E8B2-084A-4CD8-8C7B-8D3E2735F5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{1C5C0E2B-C3F3-4BD9-BA56-D0FE679E9F6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{1C5C0E2B-C3F3-4BD9-BA56-D0FE679E9F6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,12 +75,6 @@
     <t>Footer</t>
   </si>
   <si>
-    <t>Lê Bảo Thịnh</t>
-  </si>
-  <si>
-    <t>Mai Thanh Tân</t>
-  </si>
-  <si>
     <t>Carousel</t>
   </si>
   <si>
@@ -91,6 +85,12 @@
   </si>
   <si>
     <t>Register</t>
+  </si>
+  <si>
+    <t>Ngô Đông Hải</t>
+  </si>
+  <si>
+    <t>Phạm Vương Anh</t>
   </si>
 </sst>
 </file>
@@ -193,7 +193,7 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -523,7 +523,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,10 +532,10 @@
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
     <col min="11" max="11" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -571,7 +571,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F2" s="8">
         <v>45009</v>
@@ -596,14 +596,14 @@
       <c r="H2" s="6">
         <v>1</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="10"/>
+    </row>
+    <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="J2" s="10"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
       </c>
       <c r="B3" s="8">
         <v>45007</v>
@@ -614,8 +614,8 @@
       <c r="D3" s="6">
         <v>1</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>11</v>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="F3" s="8">
         <v>45009</v>
@@ -627,13 +627,13 @@
         <v>1</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J3" s="10"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B4" s="8">
         <v>45009</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F4" s="8">
         <v>45012</v>
@@ -656,14 +656,14 @@
       <c r="H4" s="6">
         <v>1</v>
       </c>
-      <c r="I4" s="9" t="s">
-        <v>12</v>
+      <c r="I4" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="J4" s="11"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="8">
         <v>45012</v>
@@ -675,7 +675,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F5" s="8">
         <v>45014</v>
@@ -686,14 +686,14 @@
       <c r="H5" s="6">
         <v>1</v>
       </c>
-      <c r="I5" s="9" t="s">
-        <v>12</v>
+      <c r="I5" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="J5" s="11"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B6" s="8">
         <v>45009</v>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F6" s="8">
         <v>45012</v>
@@ -716,12 +716,12 @@
       <c r="H6" s="6">
         <v>1</v>
       </c>
-      <c r="I6" s="5" t="s">
-        <v>11</v>
+      <c r="I6" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -735,7 +735,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7" s="8">
         <v>45014</v>
@@ -746,8 +746,8 @@
       <c r="H7" s="6">
         <v>1</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>11</v>
+      <c r="I7" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="J7" s="11"/>
     </row>
